--- a/AI/aula_09_10/2025-2026 ESAN AInf EXER_Aula_04 - enunciado.xlsx
+++ b/AI/aula_09_10/2025-2026 ESAN AInf EXER_Aula_04 - enunciado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prgca\Desktop\Code\Aulas\AI\aula_09_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85C805F-5ED4-475C-BB88-CFCBE1D906A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0EA61A-15F4-47E8-B0A9-7BBEF7ABFBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8F1E2290-E6A5-476E-97B5-AA4640AB48ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{8F1E2290-E6A5-476E-97B5-AA4640AB48ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercicio 1" sheetId="1" r:id="rId1"/>
@@ -925,7 +925,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="6" t="str">
-        <f t="shared" ref="E3:F8" si="2">_xlfn.CONCAT(C3," ","Oliveira")</f>
+        <f t="shared" ref="E3:E8" si="2">_xlfn.CONCAT(C3," ","Oliveira")</f>
         <v>Ana Sofia Gomes Oliveira</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -1237,8 +1237,8 @@
   </sheetPr>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="str">
-        <f t="shared" ref="J3:K12" si="4">IF(FIND("o",B3)=2,REPLACE(B3,1,1,"R"),IF(FIND("o",B3)&gt;2,REPLACE(B3,FIND("o",B3)-1,1,"r")))</f>
+        <f t="shared" ref="J3:J12" si="4">IF(FIND("o",B3)=2,REPLACE(B3,1,1,"R"),IF(FIND("o",B3)&gt;2,REPLACE(B3,FIND("o",B3)-1,1,"r")))</f>
         <v>Raro</v>
       </c>
       <c r="K3" s="6"/>
@@ -1704,8 +1704,8 @@
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView zoomScale="164" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="164" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1714,7 +1714,7 @@
     <col min="2" max="2" width="11.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="8.6640625" style="5"/>
     <col min="6" max="6" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="5"/>
+    <col min="7" max="7" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" style="5" customWidth="1"/>
     <col min="9" max="16384" width="8.6640625" style="5"/>
   </cols>
@@ -1758,106 +1758,316 @@
       <c r="A2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="B2" s="17" t="str">
+        <f>SUBSTITUTE(A2,"*","/")</f>
+        <v>05/10/2022</v>
+      </c>
+      <c r="C2" s="6">
+        <f>DAY(B2)</f>
+        <v>5</v>
+      </c>
+      <c r="D2" s="6">
+        <f>MONTH(B2)</f>
+        <v>10</v>
+      </c>
+      <c r="E2" s="6">
+        <f>YEAR(B2)</f>
+        <v>2022</v>
+      </c>
+      <c r="F2" s="15">
+        <f ca="1">NOW()</f>
+        <v>45939.913902314816</v>
+      </c>
+      <c r="G2" s="17">
+        <f ca="1">TODAY()</f>
+        <v>45939</v>
+      </c>
+      <c r="H2" s="6">
+        <f>WEEKNUM(B2,1)</f>
+        <v>41</v>
+      </c>
+      <c r="I2" s="6">
+        <f ca="1">HOUR(F2)</f>
+        <v>21</v>
+      </c>
+      <c r="J2" s="6">
+        <f ca="1">MINUTE(F2)</f>
+        <v>56</v>
+      </c>
+      <c r="K2" s="6">
+        <f ca="1">SECOND(F2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="B3" s="17" t="str">
+        <f t="shared" ref="B3:B8" si="0">SUBSTITUTE(A3,"*","/")</f>
+        <v>12/4/2023</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C8" si="1">DAY(B3)</f>
+        <v>12</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:D8" si="2">MONTH(B3)</f>
+        <v>4</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E8" si="3">YEAR(B3)</f>
+        <v>2023</v>
+      </c>
+      <c r="F3" s="15">
+        <f t="shared" ref="F3:F8" ca="1" si="4">NOW()</f>
+        <v>45939.913902314816</v>
+      </c>
+      <c r="G3" s="17">
+        <f t="shared" ref="G3:G8" ca="1" si="5">TODAY()</f>
+        <v>45939</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H8" si="6">WEEKNUM(B3,1)</f>
+        <v>15</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" ref="I3:I8" ca="1" si="7">HOUR(F3)</f>
+        <v>21</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" ref="J3:J8" ca="1" si="8">MINUTE(F3)</f>
+        <v>56</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" ref="K3:K8" ca="1" si="9">SECOND(F3)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="B4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>5/7/2022</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="3"/>
+        <v>2022</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45939.913902314816</v>
+      </c>
+      <c r="G4" s="17">
+        <f t="shared" ca="1" si="5"/>
+        <v>45939</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" ca="1" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" ca="1" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="B5" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>12/6/2021</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="3"/>
+        <v>2021</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45939.913902314816</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" ca="1" si="5"/>
+        <v>45939</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" ca="1" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" ca="1" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="B6" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>23/10/2024</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="3"/>
+        <v>2024</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45939.913902314816</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" ca="1" si="5"/>
+        <v>45939</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" ca="1" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" ca="1" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="B7" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="3"/>
+        <v>2020</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45939.913902314816</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" ca="1" si="5"/>
+        <v>45939</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" ca="1" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" ca="1" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="B8" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>29/07/2028</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="3"/>
+        <v>2028</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>45939.913902314816</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" ca="1" si="5"/>
+        <v>45939</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" ca="1" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" ca="1" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
@@ -1874,21 +2084,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006CB842600A0E964EBE88117445EBED7E" ma:contentTypeVersion="3" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="a725027eae200caf851bbd21b1eec2ae">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6c96d2b1-6fa3-4456-a494-3ce8b45afc84" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ff97e10b6262e29b4dd2ec9a7639a85" ns2:_="">
     <xsd:import namespace="6c96d2b1-6fa3-4456-a494-3ce8b45afc84"/>
@@ -2026,24 +2221,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8996A4EA-CBD1-41F6-8057-2C4A1B52E982}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2D331EC-60FB-4D22-8AA4-94D6DAB3265D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4B4BF97-8FED-4AF8-9174-4E59131F06EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2059,4 +2252,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2D331EC-60FB-4D22-8AA4-94D6DAB3265D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8996A4EA-CBD1-41F6-8057-2C4A1B52E982}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>